--- a/public/importar.xlsx
+++ b/public/importar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\trabajoxd\elecciones2\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3316E4FB-E963-4C41-BF5C-9337367F44AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7077FF9-C3CA-4BB5-8A0E-E2235B07E286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66EFF5B4-4345-48A3-B94B-BD9E5D9CD5C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nombres</t>
   </si>
@@ -54,6 +54,24 @@
   </si>
   <si>
     <t>Telefono</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Funcion</t>
+  </si>
+  <si>
+    <t>Local de Votacion</t>
   </si>
 </sst>
 </file>
@@ -110,11 +128,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -430,24 +449,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4CF867-E670-465F-98A1-7A73518FA907}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +494,26 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" s="3"/>
     </row>
   </sheetData>
